--- a/data/nerdearla_conference.xlsx
+++ b/data/nerdearla_conference.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandres/Projects/data_storytelling_and_visualization/talk_2024_05_pycon_us/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{054CA12A-DBF3-A746-BED0-1D5DE5A95E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEE00E7-8736-1D40-9EBD-37FBF59C409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -122,18 +122,6 @@
     <t>in-person</t>
   </si>
   <si>
-    <t>attendees</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>location</t>
-  </si>
-  <si>
     <t>presencial</t>
   </si>
   <si>
@@ -141,6 +129,18 @@
   </si>
   <si>
     <t>Nerdearla</t>
+  </si>
+  <si>
+    <t>año</t>
+  </si>
+  <si>
+    <t>lugar</t>
+  </si>
+  <si>
+    <t>modalidad</t>
+  </si>
+  <si>
+    <t>asistentes</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -542,16 +542,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -559,10 +559,10 @@
         <v>2014</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D2" s="5">
         <v>66</v>
@@ -573,10 +573,10 @@
         <v>2015</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D3" s="5">
         <v>140</v>
@@ -587,10 +587,10 @@
         <v>2016</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D4" s="5">
         <v>345</v>
@@ -601,10 +601,10 @@
         <v>2017</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D5" s="5">
         <v>1100</v>
@@ -615,10 +615,10 @@
         <v>2018</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D6" s="5">
         <v>1800</v>
@@ -629,10 +629,10 @@
         <v>2019</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5">
         <v>3500</v>
@@ -643,10 +643,10 @@
         <v>2020</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D8" s="5">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>2021</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>2022</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5">
         <v>7000</v>
@@ -685,10 +685,10 @@
         <v>2023</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D11" s="5">
         <v>10000</v>
@@ -699,10 +699,10 @@
         <v>2014</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D12" s="5">
         <v>0</v>
@@ -713,10 +713,10 @@
         <v>2015</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>2016</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5">
         <v>0</v>
@@ -741,10 +741,10 @@
         <v>2017</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" s="5">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>2018</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D16" s="5">
         <v>0</v>
@@ -769,10 +769,10 @@
         <v>2019</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D17" s="5">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>2020</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D18" s="5">
         <v>20000</v>
@@ -797,10 +797,10 @@
         <v>2021</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D19" s="5">
         <v>25000</v>
@@ -811,10 +811,10 @@
         <v>2022</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" s="5">
         <v>22000</v>
@@ -825,10 +825,10 @@
         <v>2023</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D21" s="5">
         <v>27000</v>

--- a/data/nerdearla_conference.xlsx
+++ b/data/nerdearla_conference.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sebastiandres/Projects/data_storytelling_and_visualization/talk_2024_05_pycon_us/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EEE00E7-8736-1D40-9EBD-37FBF59C409F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCFA757-1C24-EC44-A0D9-805672B58B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,25 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="41">
   <si>
     <t>Year</t>
   </si>
@@ -141,13 +154,21 @@
   </si>
   <si>
     <t>asistentes</t>
+  </si>
+  <si>
+    <t>porcentaje</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +178,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -207,10 +235,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -224,8 +253,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -528,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E76C566-5F49-F043-A10F-D5A0D2AE9CE6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -540,7 +572,7 @@
     <col min="3" max="3" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -553,8 +585,11 @@
       <c r="D1" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>2014</v>
       </c>
@@ -567,8 +602,12 @@
       <c r="D2" s="5">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2015</v>
       </c>
@@ -581,8 +620,12 @@
       <c r="D3" s="5">
         <v>140</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2016</v>
       </c>
@@ -595,8 +638,12 @@
       <c r="D4" s="5">
         <v>345</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="8">
+        <v>100</v>
+      </c>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>2017</v>
       </c>
@@ -609,8 +656,12 @@
       <c r="D5" s="5">
         <v>1100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="8">
+        <v>100</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>2018</v>
       </c>
@@ -623,8 +674,12 @@
       <c r="D6" s="5">
         <v>1800</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="8">
+        <v>100</v>
+      </c>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>2019</v>
       </c>
@@ -637,8 +692,12 @@
       <c r="D7" s="5">
         <v>3500</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="8">
+        <v>100</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>2020</v>
       </c>
@@ -651,8 +710,12 @@
       <c r="D8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>2021</v>
       </c>
@@ -665,8 +728,12 @@
       <c r="D9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="8">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2022</v>
       </c>
@@ -679,8 +746,12 @@
       <c r="D10" s="5">
         <v>7000</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="8">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>2023</v>
       </c>
@@ -693,8 +764,12 @@
       <c r="D11" s="5">
         <v>10000</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="8">
+        <v>27</v>
+      </c>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>2014</v>
       </c>
@@ -707,8 +782,12 @@
       <c r="D12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E12" s="8">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>2015</v>
       </c>
@@ -721,8 +800,12 @@
       <c r="D13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E13" s="8">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>2016</v>
       </c>
@@ -735,8 +818,12 @@
       <c r="D14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>2017</v>
       </c>
@@ -749,8 +836,12 @@
       <c r="D15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E15" s="8">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2018</v>
       </c>
@@ -763,8 +854,12 @@
       <c r="D16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E16" s="8">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2019</v>
       </c>
@@ -777,8 +872,12 @@
       <c r="D17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E17" s="8">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2020</v>
       </c>
@@ -791,8 +890,12 @@
       <c r="D18" s="5">
         <v>20000</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E18" s="8">
+        <v>100</v>
+      </c>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2021</v>
       </c>
@@ -805,8 +908,12 @@
       <c r="D19" s="5">
         <v>25000</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="8">
+        <v>100</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2022</v>
       </c>
@@ -819,8 +926,12 @@
       <c r="D20" s="5">
         <v>22000</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="8">
+        <v>76</v>
+      </c>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2023</v>
       </c>
@@ -833,6 +944,10 @@
       <c r="D21" s="5">
         <v>27000</v>
       </c>
+      <c r="E21" s="8">
+        <v>73</v>
+      </c>
+      <c r="F21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
